--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaovieira/Documents/[DOCUMENTS].academic/[2018-now].inesc-id/KNNSimulator/sim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaovieira/Documents/[DOCUMENTS].academic/[2018-now].inesc-id/KNNSim/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38493FB-E3C7-0C43-A559-FD21E3CAA81D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D831C8-C8C5-864E-B111-6FB0BF89E155}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -793,30 +793,6 @@
   </cellStyleXfs>
   <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -989,6 +965,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1555,212 +1555,212 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="77" style="12" customWidth="1"/>
+    <col min="1" max="1" width="41" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="77" style="4" customWidth="1"/>
     <col min="7" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="3">
         <v>50</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="2">
         <v>118</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="3">
         <v>60</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="3">
         <v>13</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="2">
         <v>379</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="3">
         <v>190</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="3">
         <v>30</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="2">
         <v>1152</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="3">
         <v>576</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="2">
         <v>2784</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="3">
         <v>1393</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="3">
         <v>8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="4">
         <v>29</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="2">
         <v>7352</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="3">
         <v>2947</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="3">
         <v>561</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="2">
         <v>30140</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="3">
         <v>15071</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="3">
         <v>16</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="2">
         <v>25010</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="3">
         <v>1000000</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="2">
         <v>263</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="3">
         <v>88</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="3">
         <v>34</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1785,205 +1785,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
     <col min="2" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="17" thickBot="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="17" thickBot="1">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="9">
         <v>1</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="9">
         <f t="shared" ref="C1:K1" si="0">B1*2</f>
         <v>2</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="9">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="9">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="K1" s="17">
+      <c r="K1" s="9">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="20" customFormat="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:11" s="12" customFormat="1">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="12">
         <v>108.03</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="12">
         <v>207.82</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="12">
         <v>407.96</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="12">
         <v>808.17</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="12">
         <v>1608.28</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="12">
         <v>3208.34</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="12">
         <v>6408.54</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="12">
         <v>12809.31</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="12">
         <v>25610.26</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="12">
         <v>51212.77</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="20" customFormat="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" s="12" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="97">
+      <c r="B3" s="89">
         <v>1.302E-3</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="89">
         <v>1.5790000000000001E-3</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="89">
         <v>1.9659999999999999E-3</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="89">
         <v>2.6050000000000001E-3</v>
       </c>
-      <c r="F3" s="97">
+      <c r="F3" s="89">
         <v>4.2960000000000003E-3</v>
       </c>
-      <c r="G3" s="97">
+      <c r="G3" s="89">
         <v>7.3419999999999996E-3</v>
       </c>
-      <c r="H3" s="97">
+      <c r="H3" s="89">
         <v>1.2755000000000001E-2</v>
       </c>
-      <c r="I3" s="97">
+      <c r="I3" s="89">
         <v>2.5472999999999999E-2</v>
       </c>
-      <c r="J3" s="97">
+      <c r="J3" s="89">
         <v>5.0792999999999998E-2</v>
       </c>
-      <c r="K3" s="97">
+      <c r="K3" s="89">
         <v>9.3036999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="35" customFormat="1" ht="17" thickBot="1">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:11" s="27" customFormat="1" ht="17" thickBot="1">
+      <c r="A4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="27">
         <f t="shared" ref="B4:K4" si="1">B3*1000000/B2</f>
         <v>12.052207720077757</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="27">
         <f t="shared" si="1"/>
         <v>7.5979212780290641</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="27">
         <f t="shared" si="1"/>
         <v>4.8190999117560542</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="27">
         <f t="shared" si="1"/>
         <v>3.2233317247608797</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="27">
         <f t="shared" si="1"/>
         <v>2.671176660780461</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="27">
         <f t="shared" si="1"/>
         <v>2.2884108292761987</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="27">
         <f t="shared" si="1"/>
         <v>1.9903129261891164</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="27">
         <f t="shared" si="1"/>
         <v>1.9886317061574745</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="27">
         <f t="shared" si="1"/>
         <v>1.9833066903655021</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="27">
         <f t="shared" si="1"/>
         <v>1.8166758017580382</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" thickBot="1"/>
     <row r="6" spans="1:11">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="98">
+      <c r="B6" s="90">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="91">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" thickBot="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="92">
         <v>10000</v>
       </c>
     </row>
@@ -2007,273 +2007,273 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="39" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11" style="20" customWidth="1"/>
-    <col min="5" max="6" width="15" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="13" style="19" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="39" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11" style="12" customWidth="1"/>
+    <col min="5" max="6" width="15" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="13" customWidth="1"/>
     <col min="10" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1">
-      <c r="A1" s="8"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:9" s="14" customFormat="1">
+      <c r="A1" s="93"/>
+      <c r="B1" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" s="24" customFormat="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="23" t="s">
+      <c r="I1" s="95"/>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="27" customFormat="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" s="19" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" s="31" customFormat="1">
-      <c r="A4" s="29" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" s="23" customFormat="1">
+      <c r="A4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="22">
         <v>3.9</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="23">
         <v>0.7</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="23">
         <v>1</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="24">
         <v>1</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="22">
         <v>0.5</v>
       </c>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" s="20" customFormat="1">
-      <c r="A5" s="9" t="s">
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1">
+      <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="11">
         <v>5.7</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="12">
         <v>1.6</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="12">
         <v>4</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="13">
         <v>4</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="11">
         <v>2</v>
       </c>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" s="35" customFormat="1">
-      <c r="A6" s="33" t="s">
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" s="27" customFormat="1">
+      <c r="A6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="26">
         <v>4.7</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="27">
         <v>1.4</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="27">
         <v>4</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="28">
         <v>4</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="26">
         <v>1</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="28">
         <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="11">
         <v>145</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="12">
         <v>2.4</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="12">
         <v>4</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="13">
         <v>4</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="11">
         <v>4</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="13">
         <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="11">
         <v>62</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="12">
         <v>2.9</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="12">
         <v>4</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="13">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="11">
         <v>16</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="13">
         <v>2133</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="11">
         <v>75</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="12">
         <v>3.5</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="12">
         <v>2</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="13">
         <v>2</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="11">
         <v>8</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="13">
         <v>1600</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="11">
         <v>135</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="12">
         <v>3</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="12">
         <v>2</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="13">
         <v>2</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="11">
         <v>4</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="13">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="11">
         <v>347</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="12">
         <v>8</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="13">
         <v>8</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="11">
         <v>32</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="13">
         <v>667</v>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
   </cols>
   <sheetData>
     <row r="44" spans="1:1">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="29" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2318,61 +2318,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="38" customWidth="1"/>
-    <col min="2" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="7" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="30" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="9">
         <v>1</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="9">
         <v>2</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="9">
         <v>4</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="9">
         <v>8</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="9">
         <v>16</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="9">
         <v>24</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="31">
         <v>534.05999999999995</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="31">
         <v>348.11</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="31">
         <v>281.85000000000002</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="31">
         <v>258.36</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="31">
         <v>263.83</v>
       </c>
       <c r="G2">
@@ -2383,22 +2383,22 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="31">
         <v>1335.12</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="31">
         <v>765.15</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="31">
         <v>498.24</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="31">
         <v>388.49</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="31">
         <v>315.04000000000002</v>
       </c>
       <c r="G3">
@@ -2409,22 +2409,22 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="31">
         <v>22905.72</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="31">
         <v>11767.73</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="31">
         <v>6309.23</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="31">
         <v>3526.13</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="31">
         <v>2130.86</v>
       </c>
       <c r="G4">
@@ -2435,22 +2435,22 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="31">
         <v>43670.74</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="31">
         <v>22845.77</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="31">
         <v>12564.43</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="31">
         <v>7426.75</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="31">
         <v>4854.58</v>
       </c>
       <c r="G5">
@@ -2461,22 +2461,22 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="31">
         <v>321821.68</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="31">
         <v>164301.25</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="31">
         <v>86017.5</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="31">
         <v>46884.77</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="31">
         <v>27328.47</v>
       </c>
       <c r="G6">
@@ -2486,36 +2486,36 @@
         <v>41480.61</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="42" customFormat="1">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:8" s="34" customFormat="1">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33">
         <v>5096021.45</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="31">
         <v>72855576.159999996</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="31">
         <v>36454122.640000001</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="31">
         <v>18256668.129999999</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="31">
         <v>9157815.4100000001</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="31">
         <v>4608785.8600000003</v>
       </c>
       <c r="G8">
@@ -2523,52 +2523,52 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="31">
         <v>2510812482.75</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="31">
         <v>1257284937.02</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="31">
         <v>630858476.10000002</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="31">
         <v>317652676.01999998</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="31">
         <v>161057301.38</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="31">
         <v>108882432.8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="39">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="31">
         <v>739.51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="44" customFormat="1">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:8" s="36" customFormat="1">
+      <c r="A11" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2589,11 +2589,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="13" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" customWidth="1"/>
@@ -2602,65 +2602,65 @@
     <col min="11" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="17" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:1024" s="9" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="9" t="s">
         <v>49</v>
       </c>
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="40">
         <v>6.8800000000000003E-4</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="11">
         <v>2.6689999999999999E-3</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="12">
         <v>6.9899999999999997E-4</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="13">
         <v>1.168E-3</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="12">
         <v>9.9099999999999991E-4</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="12">
         <v>2.0100000000000001E-4</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="12">
         <v>2.1699999999999999E-4</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="12">
         <v>4.7699999999999999E-4</v>
       </c>
       <c r="J2">
@@ -2668,19 +2668,19 @@
       </c>
     </row>
     <row r="3" spans="1:1024">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="40">
         <v>2.036E-3</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="11">
         <v>4.6080000000000001E-3</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="12">
         <v>1.108E-3</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="13">
         <v>1.5679999999999999E-3</v>
       </c>
       <c r="F3">
@@ -2700,19 +2700,19 @@
       </c>
     </row>
     <row r="4" spans="1:1024">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="40">
         <v>4.1023999999999998E-2</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="11">
         <v>9.5048999999999995E-2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="12">
         <v>1.2413E-2</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="13">
         <v>1.0874999999999999E-2</v>
       </c>
       <c r="F4">
@@ -2732,19 +2732,19 @@
       </c>
     </row>
     <row r="5" spans="1:1024">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="40">
         <v>0.11864</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="11">
         <v>0.28378500000000001</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="12">
         <v>2.8409E-2</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="13">
         <v>3.3161000000000003E-2</v>
       </c>
       <c r="F5">
@@ -2764,19 +2764,19 @@
       </c>
     </row>
     <row r="6" spans="1:1024">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="40">
         <v>0.90632800000000002</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="11">
         <v>2.3883779999999999</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="12">
         <v>9.7410999999999998E-2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="13">
         <v>0.18001900000000001</v>
       </c>
       <c r="F6">
@@ -2796,19 +2796,19 @@
       </c>
     </row>
     <row r="7" spans="1:1024">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="40">
         <v>233.51242400000001</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="11">
         <v>631.32241399999998</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="12">
         <v>30.971461999999999</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="13">
         <v>50.295641000000003</v>
       </c>
       <c r="F7">
@@ -2828,19 +2828,19 @@
       </c>
     </row>
     <row r="8" spans="1:1024">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="40">
         <v>185.311128</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="11">
         <v>515.10249299999998</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="12">
         <v>23.207187999999999</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="13">
         <v>41.253909</v>
       </c>
       <c r="F8">
@@ -2860,19 +2860,19 @@
       </c>
     </row>
     <row r="9" spans="1:1024">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="40">
         <v>7336.9691590000002</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="11">
         <v>21582.630055000001</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="12">
         <v>1144.566329</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="13">
         <v>1573.300025</v>
       </c>
       <c r="F9">
@@ -2892,34 +2892,34 @@
       </c>
     </row>
     <row r="10" spans="1:1024">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="40">
         <v>1.5202E-2</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-    </row>
-    <row r="11" spans="1:1024" s="52" customFormat="1">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:1024" s="44" customFormat="1">
+      <c r="A11" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
       <c r="AMJ11"/>
     </row>
   </sheetData>
@@ -2941,13 +2941,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5" style="53" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="19" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="20" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="5" style="45" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="13" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="6.5" customWidth="1"/>
@@ -2955,247 +2955,247 @@
     <col min="13" max="1026" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" s="9" customFormat="1">
+      <c r="A1" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="56"/>
-      <c r="H2" s="57">
+      <c r="C2" s="75"/>
+      <c r="D2" s="48"/>
+      <c r="H2" s="49">
         <v>79</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="49">
         <v>15</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="49">
         <v>45</v>
       </c>
-      <c r="K2" s="57">
+      <c r="K2" s="49">
         <v>74</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="31">
         <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="56"/>
-      <c r="H3" s="39">
+      <c r="C3" s="75"/>
+      <c r="D3" s="48"/>
+      <c r="H3" s="31">
         <v>95</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="31">
         <v>20</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="31">
         <v>52</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="31">
         <v>83</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="31">
         <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="56"/>
-      <c r="H4" s="39">
+      <c r="C4" s="75"/>
+      <c r="D4" s="48"/>
+      <c r="H4" s="31">
         <v>83.400249876800004</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="31">
         <v>17.063609822899998</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="31">
         <v>48.795460974400001</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="31">
         <v>78.114444090500001</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="31">
         <v>233.106558621</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="61" customFormat="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="1:12" s="53" customFormat="1">
+      <c r="A5" s="98"/>
+      <c r="B5" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63">
+      <c r="C5" s="76"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55">
         <v>2.5453206508499999</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="55">
         <v>1.03317437585</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="55">
         <v>1.1970549137399999</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="55">
         <v>1.9350476632</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="55">
         <v>4.1344574757599997</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="56"/>
-      <c r="H6" s="39">
+      <c r="C6" s="75"/>
+      <c r="D6" s="48"/>
+      <c r="H6" s="31">
         <v>82</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="31">
         <v>16</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="31">
         <v>48</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="31">
         <v>74</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="31">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2"/>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="56"/>
-      <c r="H7" s="39">
+      <c r="C7" s="75"/>
+      <c r="D7" s="48"/>
+      <c r="H7" s="31">
         <v>161</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="31">
         <v>66</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="31">
         <v>79</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="57">
         <v>149</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="58">
         <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
-      <c r="B8" s="55" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="56"/>
-      <c r="H8" s="39">
+      <c r="C8" s="75"/>
+      <c r="D8" s="48"/>
+      <c r="H8" s="31">
         <v>150.733263029</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="31">
         <v>55.030479873300003</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="31">
         <v>74.802833365300003</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="31">
         <v>141.69338719699999</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="31">
         <v>330.97444960000001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="56"/>
-      <c r="H9" s="39">
+      <c r="C9" s="75"/>
+      <c r="D9" s="48"/>
+      <c r="H9" s="31">
         <v>0.10434324846</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="31">
         <v>0.14542360448300001</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="31">
         <v>8.3724022653700006E-2</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="31">
         <v>3.1785635094099998E-2</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="31">
         <v>0.21005931907200001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="52" customFormat="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:12" s="44" customFormat="1">
+      <c r="A10" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3219,361 +3219,361 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="67" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="68" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="20" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="20" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="59" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="13" customWidth="1"/>
     <col min="11" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="69" customFormat="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="61" customFormat="1">
+      <c r="B1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" s="71" customFormat="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="70" t="s">
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+    </row>
+    <row r="2" spans="1:10" s="63" customFormat="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="65">
         <f>'Timing CPU'!B2/'Timing Accel'!$G2*1000000</f>
         <v>2.3474018219659496</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="49">
         <f>'Timing CPU'!C2/'Timing Accel'!$G2*1000000</f>
         <v>9.106417823876626</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="49">
         <f>'Timing CPU'!D2/'Timing Accel'!$G2*1000000</f>
         <v>2.3849329557473813</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="66">
         <f>'Timing CPU'!E2/'Timing Accel'!$G2*1000000</f>
         <v>3.9851240233375416</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="67">
         <f>'Timing CPU'!F2/'Timing Accel'!$G2*1000000</f>
         <v>3.3812139615817669</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="49">
         <f>'Timing CPU'!G2/'Timing Accel'!$G2*1000000</f>
         <v>0.68579617182435437</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="49">
         <f>'Timing CPU'!H2/'Timing Accel'!$G2*1000000</f>
         <v>0.74038691187007399</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="49">
         <f>'Timing CPU'!I2/'Timing Accel'!$G2*1000000</f>
         <v>1.62748643761302</v>
       </c>
-      <c r="J3" s="74">
+      <c r="J3" s="66">
         <f>'Timing CPU'!J2/'Timing Accel'!$G2*1000000</f>
         <v>1.8185540277730394</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="73">
+      <c r="B4" s="65">
         <f>'Timing CPU'!B3/'Timing Accel'!$G3*1000000</f>
         <v>6.1225717206952543</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="49">
         <f>'Timing CPU'!C3/'Timing Accel'!$G3*1000000</f>
         <v>13.85697961147531</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="49">
         <f>'Timing CPU'!D3/'Timing Accel'!$G3*1000000</f>
         <v>3.3319299933842546</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="66">
         <f>'Timing CPU'!E3/'Timing Accel'!$G3*1000000</f>
         <v>4.7152222289047927</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="67">
         <f>'Timing CPU'!F3/'Timing Accel'!$G3*1000000</f>
         <v>3.1244361580561733</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="49">
         <f>'Timing CPU'!G3/'Timing Accel'!$G3*1000000</f>
         <v>0.57737415047813789</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="49">
         <f>'Timing CPU'!H3/'Timing Accel'!$G3*1000000</f>
         <v>1.1607626150237564</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="49">
         <f>'Timing CPU'!I3/'Timing Accel'!$G3*1000000</f>
         <v>2.6372767185902446</v>
       </c>
-      <c r="J4" s="74">
+      <c r="J4" s="66">
         <f>'Timing CPU'!J3/'Timing Accel'!$G3*1000000</f>
         <v>1.7351296084681542</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="65">
         <f>'Timing CPU'!B4/'Timing Accel'!$G4*1000000</f>
         <v>24.461272434559657</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="49">
         <f>'Timing CPU'!C4/'Timing Accel'!$G4*1000000</f>
         <v>56.67461689821716</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="49">
         <f>'Timing CPU'!D4/'Timing Accel'!$G4*1000000</f>
         <v>7.401466817721067</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="66">
         <f>'Timing CPU'!E4/'Timing Accel'!$G4*1000000</f>
         <v>6.484407608371594</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="67">
         <f>'Timing CPU'!F4/'Timing Accel'!$G4*1000000</f>
         <v>1.1806093852483455</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="49">
         <f>'Timing CPU'!G4/'Timing Accel'!$G4*1000000</f>
         <v>0.41321328483692094</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="49">
         <f>'Timing CPU'!H4/'Timing Accel'!$G4*1000000</f>
         <v>1.5318108639914139</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="49">
         <f>'Timing CPU'!I4/'Timing Accel'!$G4*1000000</f>
         <v>7.5165464194144649</v>
       </c>
-      <c r="J5" s="74">
+      <c r="J5" s="66">
         <f>'Timing CPU'!J4/'Timing Accel'!$G4*1000000</f>
         <v>1.0834178045435574</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="65">
         <f>'Timing CPU'!B5/'Timing Accel'!$G5*1000000</f>
         <v>29.549852923228666</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="49">
         <f>'Timing CPU'!C5/'Timing Accel'!$G5*1000000</f>
         <v>70.682779937781916</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="49">
         <f>'Timing CPU'!D5/'Timing Accel'!$G5*1000000</f>
         <v>7.0758746771409573</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="66">
         <f>'Timing CPU'!E5/'Timing Accel'!$G5*1000000</f>
         <v>8.2594628522183573</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="67">
         <f>'Timing CPU'!F5/'Timing Accel'!$G5*1000000</f>
         <v>1.2421199977085415</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="49">
         <f>'Timing CPU'!G5/'Timing Accel'!$G5*1000000</f>
         <v>0.38929888839351318</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="49">
         <f>'Timing CPU'!H5/'Timing Accel'!$G5*1000000</f>
         <v>2.8448956514591859</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="49">
         <f>'Timing CPU'!I5/'Timing Accel'!$G5*1000000</f>
         <v>9.5571258135300674</v>
       </c>
-      <c r="J6" s="74">
+      <c r="J6" s="66">
         <f>'Timing CPU'!J5/'Timing Accel'!$G5*1000000</f>
         <v>1.5019016615565481</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="65">
         <f>'Timing CPU'!B6/'Timing Accel'!$G6*1000000</f>
         <v>43.37607952274864</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="49">
         <f>'Timing CPU'!C6/'Timing Accel'!$G6*1000000</f>
         <v>114.30571940664235</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="49">
         <f>'Timing CPU'!D6/'Timing Accel'!$G6*1000000</f>
         <v>4.6620067816402759</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="66">
         <f>'Timing CPU'!E6/'Timing Accel'!$G6*1000000</f>
         <v>8.6155546994086993</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="67">
         <f>'Timing CPU'!F6/'Timing Accel'!$G6*1000000</f>
         <v>1.2616148152756803</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="49">
         <f>'Timing CPU'!G6/'Timing Accel'!$G6*1000000</f>
         <v>0.26848978087692305</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="49">
         <f>'Timing CPU'!H6/'Timing Accel'!$G6*1000000</f>
         <v>2.6697264610797502</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="49">
         <f>'Timing CPU'!I6/'Timing Accel'!$G6*1000000</f>
         <v>12.484200501085205</v>
       </c>
-      <c r="J7" s="74">
+      <c r="J7" s="66">
         <f>'Timing CPU'!J6/'Timing Accel'!$G6*1000000</f>
         <v>1.0050898196428271</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="81" customFormat="1">
-      <c r="A8" s="76" t="s">
+    <row r="8" spans="1:10" s="73" customFormat="1">
+      <c r="A8" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="79"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="65">
         <f>'Timing CPU'!B8/'Timing Accel'!$G8*1000000</f>
         <v>59.920100229022985</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="49">
         <f>'Timing CPU'!C8/'Timing Accel'!$G8*1000000</f>
         <v>166.55768782962463</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="49">
         <f>'Timing CPU'!D8/'Timing Accel'!$G8*1000000</f>
         <v>7.5040125544634284</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="66">
         <f>'Timing CPU'!E8/'Timing Accel'!$G8*1000000</f>
         <v>13.339395150187599</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="67">
         <f>'Timing CPU'!F8/'Timing Accel'!$G8*1000000</f>
         <v>1.3220897899386612</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="49">
         <f>'Timing CPU'!G8/'Timing Accel'!$G8*1000000</f>
         <v>0.39229044377223493</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="49">
         <f>'Timing CPU'!H8/'Timing Accel'!$G8*1000000</f>
         <v>1.2998446972675086</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="49">
         <f>'Timing CPU'!I8/'Timing Accel'!$G8*1000000</f>
         <v>15.419604915500676</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="66">
         <f>'Timing CPU'!J8/'Timing Accel'!$G8*1000000</f>
         <v>0.53977913315824977</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="73">
+      <c r="B10" s="65">
         <f>'Timing CPU'!B9/'Timing Accel'!$G9*1000000</f>
         <v>67.384324269066113</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="49">
         <f>'Timing CPU'!C9/'Timing Accel'!$G9*1000000</f>
         <v>198.21957959594749</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="49">
         <f>'Timing CPU'!D9/'Timing Accel'!$G9*1000000</f>
         <v>10.511946689346935</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="66">
         <f>'Timing CPU'!E9/'Timing Accel'!$G9*1000000</f>
         <v>14.449530420484875</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="67">
         <f>'Timing CPU'!F9/'Timing Accel'!$G9*1000000</f>
         <v>2.1433958444763919</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="49">
         <f>'Timing CPU'!G9/'Timing Accel'!$G9*1000000</f>
         <v>0.51228428283244609</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="49">
         <f>'Timing CPU'!H9/'Timing Accel'!$G9*1000000</f>
         <v>1.57724765679556</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="49">
         <f>'Timing CPU'!I9/'Timing Accel'!$G9*1000000</f>
         <v>17.717528662713718</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="66">
         <f>'Timing CPU'!J9/'Timing Accel'!$G9*1000000</f>
         <v>0.86383164465810869</v>
       </c>
@@ -3614,443 +3614,443 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
     <col min="2" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="68" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="60" customWidth="1"/>
     <col min="11" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="17" thickBot="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="17" thickBot="1">
+      <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="9">
         <v>1</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="9">
         <f t="shared" ref="C1:I1" si="0">B1*2</f>
         <v>2</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="9">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="31" customFormat="1">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:10" s="23" customFormat="1">
+      <c r="A2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="83">
         <v>6408.13</v>
       </c>
-      <c r="C2" s="91">
+      <c r="C2" s="83">
         <v>6408.37</v>
       </c>
-      <c r="D2" s="91">
+      <c r="D2" s="83">
         <v>6407.94</v>
       </c>
-      <c r="E2" s="91">
+      <c r="E2" s="83">
         <v>6409.71</v>
       </c>
-      <c r="F2" s="91">
+      <c r="F2" s="83">
         <v>6411.32</v>
       </c>
-      <c r="G2" s="91">
+      <c r="G2" s="83">
         <v>6414.55</v>
       </c>
-      <c r="H2" s="91">
+      <c r="H2" s="83">
         <v>6420.86</v>
       </c>
-      <c r="I2" s="91">
+      <c r="I2" s="83">
         <v>6433.69</v>
       </c>
-      <c r="J2" s="94"/>
-    </row>
-    <row r="3" spans="1:10" s="20" customFormat="1">
-      <c r="A3" s="9" t="s">
+      <c r="J2" s="86"/>
+    </row>
+    <row r="3" spans="1:10" s="12" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="92">
+      <c r="B3" s="84">
         <v>1.2093E-2</v>
       </c>
-      <c r="C3" s="92">
+      <c r="C3" s="84">
         <v>1.2933999999999999E-2</v>
       </c>
-      <c r="D3" s="92">
+      <c r="D3" s="84">
         <v>1.2716999999999999E-2</v>
       </c>
-      <c r="E3" s="92">
+      <c r="E3" s="84">
         <v>1.4227999999999999E-2</v>
       </c>
-      <c r="F3" s="92">
+      <c r="F3" s="84">
         <v>1.5188999999999999E-2</v>
       </c>
-      <c r="G3" s="92">
+      <c r="G3" s="84">
         <v>1.9515999999999999E-2</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="84">
         <v>2.5076000000000001E-2</v>
       </c>
-      <c r="I3" s="92">
+      <c r="I3" s="84">
         <v>3.8448999999999997E-2</v>
       </c>
-      <c r="J3" s="95"/>
-    </row>
-    <row r="4" spans="1:10" s="20" customFormat="1">
-      <c r="A4" s="9" t="s">
+      <c r="J3" s="87"/>
+    </row>
+    <row r="4" spans="1:10" s="12" customFormat="1">
+      <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="92">
+      <c r="B4" s="84">
         <f t="shared" ref="B4:I4" si="1">B3*1000000/B2</f>
         <v>1.8871340000905099</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="84">
         <f t="shared" si="1"/>
         <v>2.0182979447191718</v>
       </c>
-      <c r="D4" s="92">
+      <c r="D4" s="84">
         <f t="shared" si="1"/>
         <v>1.9845691439058419</v>
       </c>
-      <c r="E4" s="92">
+      <c r="E4" s="84">
         <f t="shared" si="1"/>
         <v>2.21975721210476</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="84">
         <f t="shared" si="1"/>
         <v>2.3690909204344814</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="84">
         <f t="shared" si="1"/>
         <v>3.0424581615234114</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="84">
         <f t="shared" si="1"/>
         <v>3.9053958504001023</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="84">
         <f t="shared" si="1"/>
         <v>5.9761971745607889</v>
       </c>
-      <c r="J4" s="95"/>
-    </row>
-    <row r="5" spans="1:10" s="20" customFormat="1">
-      <c r="A5" s="9" t="s">
+      <c r="J4" s="87"/>
+    </row>
+    <row r="5" spans="1:10" s="12" customFormat="1">
+      <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="84">
         <v>974</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="84">
         <v>1054</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="84">
         <v>1225</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="84">
         <v>1553</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="84">
         <v>2219</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="84">
         <v>3547</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="84">
         <v>6267</v>
       </c>
-      <c r="I5" s="92">
+      <c r="I5" s="84">
         <v>11402</v>
       </c>
-      <c r="J5" s="95">
+      <c r="J5" s="87">
         <v>17600</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:10" s="12" customFormat="1">
+      <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="84">
         <v>1.5</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="84">
         <v>1.5</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="84">
         <v>1.5</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="84">
         <v>1.5</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="84">
         <v>1.5</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="84">
         <v>1.5</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="84">
         <v>1.5</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="84">
         <v>1.5</v>
       </c>
-      <c r="J6" s="95">
+      <c r="J6" s="87">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:10" s="12" customFormat="1">
+      <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="84">
         <v>9</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="84">
         <v>9</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="84">
         <v>9</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="84">
         <v>9</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="84">
         <v>9</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="84">
         <v>9</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="84">
         <v>9</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="84">
         <v>9</v>
       </c>
-      <c r="J7" s="95">
+      <c r="J7" s="87">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="20" customFormat="1">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:10" s="12" customFormat="1">
+      <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="84">
         <v>963</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="84">
         <v>1043</v>
       </c>
-      <c r="D8" s="92">
+      <c r="D8" s="84">
         <v>1212</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="84">
         <v>1540</v>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="84">
         <v>2206</v>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="84">
         <v>3534</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="84">
         <v>6252</v>
       </c>
-      <c r="I8" s="92">
+      <c r="I8" s="84">
         <v>11383</v>
       </c>
-      <c r="J8" s="95">
+      <c r="J8" s="87">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:10" s="12" customFormat="1">
+      <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="84">
         <v>11</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="84">
         <v>11</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="84">
         <v>13</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="84">
         <v>13</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="84">
         <v>13</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="84">
         <v>13</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="84">
         <v>15</v>
       </c>
-      <c r="I9" s="92">
+      <c r="I9" s="84">
         <v>19</v>
       </c>
-      <c r="J9" s="95">
+      <c r="J9" s="87">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:10" s="12" customFormat="1">
+      <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="84">
         <v>0.11700000000000001</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="84">
         <v>0.11700000000000001</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="84">
         <v>0.11700000000000001</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="84">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="84">
         <v>0.11700000000000001</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G10" s="84">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="84">
         <v>0.11700000000000001</v>
       </c>
-      <c r="I10" s="92">
+      <c r="I10" s="84">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J10" s="95"/>
-    </row>
-    <row r="11" spans="1:10" s="35" customFormat="1" ht="17" thickBot="1">
-      <c r="A11" s="33" t="s">
+      <c r="J10" s="87"/>
+    </row>
+    <row r="11" spans="1:10" s="27" customFormat="1" ht="17" thickBot="1">
+      <c r="A11" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="93">
+      <c r="B11" s="85">
         <v>1.5580000000000001</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="85">
         <v>1.5569999999999999</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="85">
         <v>1.5580000000000001</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="85">
         <v>1.5580000000000001</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="85">
         <v>1.5580000000000001</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="85">
         <v>1.56</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="85">
         <v>1.569</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="85">
         <v>1.577</v>
       </c>
-      <c r="J11" s="96"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="17" thickBot="1">
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="95"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="79">
         <v>4</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="95"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B14" s="80">
         <v>64</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="95"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="88">
+      <c r="B15" s="80">
         <v>1</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="95"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B16" s="82">
         <v>10000</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="95"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4072,241 +4072,241 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
     <col min="2" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="17" thickBot="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="17" thickBot="1">
+      <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="9">
         <v>4</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="9">
         <f t="shared" ref="C1:N1" si="0">B1*2</f>
         <v>8</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="9">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="9">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="9">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="9">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="K1" s="17">
+      <c r="K1" s="9">
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="L1" s="17">
+      <c r="L1" s="9">
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="M1" s="17">
+      <c r="M1" s="9">
         <f t="shared" si="0"/>
         <v>8192</v>
       </c>
-      <c r="N1" s="17">
+      <c r="N1" s="9">
         <f t="shared" si="0"/>
         <v>16384</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:14" s="12" customFormat="1">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="12">
         <v>10.89</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="12">
         <v>13.3</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="12">
         <v>18.62</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="12">
         <v>28.79</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="12">
         <v>49.5</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="12">
         <v>90.42</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="12">
         <v>172.53</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="12">
         <v>336.27</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="12">
         <v>664.06</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="12">
         <v>1319.2</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="12">
         <v>2630.13</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="12">
         <v>5251.73</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="12">
         <v>10494.19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="20" customFormat="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:14" s="12" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="12">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="89">
         <v>1.7E-5</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="89">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="89">
         <v>4.3999999999999999E-5</v>
       </c>
-      <c r="F3" s="97">
+      <c r="F3" s="89">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="G3" s="97">
+      <c r="G3" s="89">
         <v>1.63E-4</v>
       </c>
-      <c r="H3" s="97">
+      <c r="H3" s="89">
         <v>3.4400000000000001E-4</v>
       </c>
-      <c r="I3" s="97">
+      <c r="I3" s="89">
         <v>6.9800000000000005E-4</v>
       </c>
-      <c r="J3" s="97">
+      <c r="J3" s="89">
         <v>1.276E-3</v>
       </c>
-      <c r="K3" s="97">
+      <c r="K3" s="89">
         <v>2.6949999999999999E-3</v>
       </c>
-      <c r="L3" s="97">
+      <c r="L3" s="89">
         <v>5.11E-3</v>
       </c>
-      <c r="M3" s="97">
+      <c r="M3" s="89">
         <v>1.0921999999999999E-2</v>
       </c>
-      <c r="N3" s="97">
+      <c r="N3" s="89">
         <v>2.0757000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="35" customFormat="1" ht="17" thickBot="1">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:14" s="27" customFormat="1" ht="17" thickBot="1">
+      <c r="A4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="27">
         <f t="shared" ref="B4:N4" si="1">B3*1000000/B2</f>
         <v>1.1937557392102847</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="27">
         <f t="shared" si="1"/>
         <v>1.2781954887218046</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="27">
         <f t="shared" si="1"/>
         <v>1.3963480128893662</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="27">
         <f t="shared" si="1"/>
         <v>1.5283084404307052</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="27">
         <f t="shared" si="1"/>
         <v>1.6767676767676767</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="27">
         <f t="shared" si="1"/>
         <v>1.8026985180269852</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="27">
         <f t="shared" si="1"/>
         <v>1.9938561409609923</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="27">
         <f t="shared" si="1"/>
         <v>2.0757129687453535</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="27">
         <f t="shared" si="1"/>
         <v>1.9215131162846733</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="27">
         <f t="shared" si="1"/>
         <v>2.0429047907822921</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="27">
         <f t="shared" si="1"/>
         <v>1.9428697440810909</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="27">
         <f t="shared" si="1"/>
         <v>2.0796956431499716</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="27">
         <f t="shared" si="1"/>
         <v>1.9779516094143521</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17" thickBot="1"/>
     <row r="6" spans="1:14">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="98">
+      <c r="B6" s="90">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="91">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="91">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="17" thickBot="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="92">
         <v>1</v>
       </c>
     </row>
